--- a/data/trans_camb/P25A_10_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_10_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -626,7 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -664,7 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,93</t>
         </is>
       </c>
     </row>
@@ -702,7 +763,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,3</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 0,72</t>
+          <t>-8,97; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,24</t>
+          <t>-8,74; 2,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,38</t>
+          <t>-1,75; 21,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 4,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 1,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 9,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-70,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-73,36%</t>
+          <t>-53,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,75%</t>
+          <t>-53,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,61%</t>
+          <t>198,92%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-57,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>151,6%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-0,03</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,0</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,0</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,4</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,89</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,5</t>
+          <t>0,0; 6,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,86</t>
+          <t>0,0; 6,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 1,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 2,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 1,97</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>203,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>239,84%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41,82%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,81</t>
+          <t>-4,11; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,72</t>
+          <t>-3,67; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,17</t>
+          <t>-5,34; 2,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,6</t>
+          <t>-6,33; 4,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,89</t>
+          <t>-6,03; 4,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,85</t>
+          <t>-4,83; 7,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 2,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 2,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 4,36</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>198,5%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>166,54%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,8%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>-24,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>-21,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-19,44%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-4,37%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,2; 160,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-76,43; 159,48</t>
+          <t>-100,0; 387,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 189,11</t>
+          <t>-100,0; 437,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,35; 180,98</t>
+          <t>-80,63; 557,09</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-88,19; 227,32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-83,55; 265,19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-71,86; 433,61</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,89</t>
+          <t>-2,6; 6,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,36</t>
+          <t>-2,24; 8,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 5,58</t>
+          <t>-2,34; 8,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,73</t>
+          <t>-14,74; 1,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 3,42</t>
+          <t>-10,5; 8,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,31</t>
+          <t>-9,34; 8,58</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 2,37</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 5,5</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 6,18</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>102,85%</t>
+          <t>103,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>121,85%</t>
+          <t>133,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,63%</t>
+          <t>140,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-39,07%</t>
+          <t>-74,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-38,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,57; 176,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,18; 117,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 202,17</t>
+          <t>-100,0; 462,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 146,36</t>
+          <t>-87,51; 403,54</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-78,83; 358,94</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-68,83; 475,23</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 5,61</t>
+          <t>-9,58; 6,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,0</t>
+          <t>-15,59; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 4,2</t>
+          <t>-4,47; 17,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 13,49</t>
+          <t>-15,55; 7,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,53</t>
+          <t>-17,1; 7,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,52</t>
+          <t>-8,5; 21,31</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 6,44</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 3,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 17,38</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1818,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1467,22 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-34,32%</t>
+          <t>166,69%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>-34,68%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-27,8%</t>
+          <t>-46,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>58,7%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-28,99%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-57,57%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>84,45%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-81,23; 106,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-77,64; 314,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-78,73; 106,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,55; 245,64</t>
+          <t>-59,28; 523,62</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-83,64; 252,38</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 213,31</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-30,42; 506,53</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,5</t>
+          <t>-1,55; 2,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,83</t>
+          <t>-2,09; 1,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,92</t>
+          <t>-1,23; 2,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,07</t>
+          <t>-3,68; 0,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,64</t>
+          <t>-3,29; 1,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,94</t>
+          <t>0,48; 7,41</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 0,89</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 0,76</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 4,47</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>-27,11%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-37,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>105,07%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>86,52%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 311,38</t>
+          <t>-79,16; 625,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 181,81</t>
+          <t>-100,0; 490,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 34,14</t>
+          <t>-78,35; 657,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 78,08</t>
+          <t>-74,2; 55,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 33,89</t>
+          <t>-66,31; 82,08</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 49,04</t>
+          <t>2,45; 296,22</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-63,75; 52,04</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-63,69; 41,51</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 253,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
